--- a/docs/usuarios.xlsx
+++ b/docs/usuarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiga\Documents\Repositorio_Faculdade\ControlaFacil\Backend\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiga\Documents\Repositorio_Faculdade\Controla_Facil_Backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2330BFB9-A4F2-4589-94A4-C7ACB9EBC5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477095B-25D3-4186-8D91-5563C2E19931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1EAE46C1-DDBF-4172-98F4-E017E6AADE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -72,13 +72,22 @@
   </si>
   <si>
     <t>fUzAY7gL1w</t>
+  </si>
+  <si>
+    <t>test_user_7201945259311337077@testuser.com</t>
+  </si>
+  <si>
+    <t>ESTUSER7201945259311337077</t>
+  </si>
+  <si>
+    <t>B5To8suH33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +109,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -131,18 +148,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211664C2-A644-41AC-82C3-5CEFD501821E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,7 +560,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2987270608</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{FDFA5D68-48A9-4F6D-9516-2BC063F48150}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/docs/usuarios.xlsx
+++ b/docs/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiga\Documents\Repositorio_Faculdade\Controla_Facil_Backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D477095B-25D3-4186-8D91-5563C2E19931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6700DE4-77A9-470D-A98F-87518E91B788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1EAE46C1-DDBF-4172-98F4-E017E6AADE33}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/usuarios.xlsx
+++ b/docs/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guiga\Documents\Repositorio_Faculdade\Controla_Facil_Backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6700DE4-77A9-470D-A98F-87518E91B788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35502D-43FA-4609-A999-534F5113BA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1EAE46C1-DDBF-4172-98F4-E017E6AADE33}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
